--- a/JAPN/JAPNttl.xlsx
+++ b/JAPN/JAPNttl.xlsx
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>

--- a/JAPN/JAPNttl.xlsx
+++ b/JAPN/JAPNttl.xlsx
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
